--- a/biology/Zoologie/Chrysolina_americana/Chrysolina_americana.xlsx
+++ b/biology/Zoologie/Chrysolina_americana/Chrysolina_americana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysolina americana, la chrysomèle américaine ou chrysomèle du romarin, est une espèce d'insectes de l'ordre des coléoptères et de la famille des chrysomélidés, aux élytres présentant des reflets métallisés verts et violets. Elle s'attaque aux lamiacées et plus particulièrement aux lavandes, thym, romarin... 
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes mesurent de 5 à 8 mm de long. Les élytres présentent des bandes longitudinales vert métallisé et violet métallisé, disposées en quatre doubles stries.
-Les larves sont plutôt ivoirées à bandes noirâtres sur le vivant (??). Elles consomment, comme les adultes, le romarin, la sauge officinale, la lavande officinale et la lavande papillon. Dans la région méditerranéenne les femelles fécondées à la fin de l'été ou au début de l'hiver pondent et déposent les œufs sur les feuilles, chaque œuf étant légèrement collé par un mucus, par petits groupes ou isolément. Le développement larvaire se poursuit durant les mois d'hiver, avec arrêt durant les périodes froides. Pour se nymphoser, la larve au 4e stade s'enterre sous quelques centimètres ; la nymphose dure environ trois semaines. L'imago sort au printemps[1].
+Les larves sont plutôt ivoirées à bandes noirâtres sur le vivant (??). Elles consomment, comme les adultes, le romarin, la sauge officinale, la lavande officinale et la lavande papillon. Dans la région méditerranéenne les femelles fécondées à la fin de l'été ou au début de l'hiver pondent et déposent les œufs sur les feuilles, chaque œuf étant légèrement collé par un mucus, par petits groupes ou isolément. Le développement larvaire se poursuit durant les mois d'hiver, avec arrêt durant les périodes froides. Pour se nymphoser, la larve au 4e stade s'enterre sous quelques centimètres ; la nymphose dure environ trois semaines. L'imago sort au printemps.
 			Imago
 			Chrysolina americana sur Salvia
 			Accouplement sur une lavande
@@ -547,10 +561,12 @@
           <t>Cycle biologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Tout commence au stade d'œuf, pondus par dizaines. Ils naissent et deviennent de jeunes larves[2]. Ils mangent la feuille sur laquelle ils sont nés puis se séparent pour continuer leur vie. Puis elles deviennent des adultes[3], se reproduisent[4], et créent un nouveaux cycle de vie.</t>
+Tout commence au stade d'œuf, pondus par dizaines. Ils naissent et deviennent de jeunes larves. Ils mangent la feuille sur laquelle ils sont nés puis se séparent pour continuer leur vie. Puis elles deviennent des adultes, se reproduisent, et créent un nouveaux cycle de vie.</t>
         </is>
       </c>
     </row>
@@ -578,9 +594,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du pourtour méditerranéen jusqu'à la Belgique et à l'Angleterre[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du pourtour méditerranéen jusqu'à la Belgique et à l'Angleterre.
 </t>
         </is>
       </c>
@@ -609,18 +627,159 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Chrysomela americana[6]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Chrysomela americana. 
 Contrairement à ce que laisserait supposer sa dénomination, ce coléoptère est originaire d'Afrique du Nord. 
-Synonymie
-Chrysomela americana Linné, 1758 Protonyme
-Taxinomie
-Il existe un sous-genre, le nom complet est : Chrysolina (Taeniochrysea) americana (Linnaeus, 1758).
-Dégâts
-À l'instar des doryphores, les chrysomèles du romarin broutent littéralement les feuilles des lamiacées auxquelles elles s'attaquent. 
-Moyens de lutte
-Cet insecte a des prédateurs naturels : il existe des guêpes à pattes longues, orangées (des polistes[7], genre Polistes) qui sillonnent les branches du romarin et qui dévorent les larves. Ces guêpes recherchent activement les larves de Chrysolina americana ainsi que d'autres larves.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chrysolina_americana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysolina_americana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chrysomela americana Linné, 1758 Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chrysolina_americana</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysolina_americana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe un sous-genre, le nom complet est : Chrysolina (Taeniochrysea) americana (Linnaeus, 1758).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chrysolina_americana</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysolina_americana</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dégâts</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'instar des doryphores, les chrysomèles du romarin broutent littéralement les feuilles des lamiacées auxquelles elles s'attaquent. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chrysolina_americana</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysolina_americana</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Moyens de lutte</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet insecte a des prédateurs naturels : il existe des guêpes à pattes longues, orangées (des polistes, genre Polistes) qui sillonnent les branches du romarin et qui dévorent les larves. Ces guêpes recherchent activement les larves de Chrysolina americana ainsi que d'autres larves.
 On a également observé des mésanges à longue queue manger les larves. 
 Un autre moyen d'endiguer leur prolifération est le ramassage à la main des individus (adultes, larves et pontes), avant la période de reproduction, c'est-à-dire avant la fin de l'été.
 			Jeune larve de chrysomèle du romarin
